--- a/biology/Histoire de la zoologie et de la botanique/Société_botanique_de_Ratisbonne/Société_botanique_de_Ratisbonne.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_botanique_de_Ratisbonne/Société_botanique_de_Ratisbonne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_botanique_de_Ratisbonne</t>
+          <t>Société_botanique_de_Ratisbonne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Société botanique de Ratisbonne[1],[2] (Regensburgische Botanische Gesellschaft) est une société savante, basée à Ratisbonne (en allemand Regensburg) en Allemagne, qui a pour objectif la promotion de la botanique, incluant les recherches scientifiques sur les végétaux et la protection de l’environnement.
+La Société botanique de Ratisbonne, (Regensburgische Botanische Gesellschaft) est une société savante, basée à Ratisbonne (en allemand Regensburg) en Allemagne, qui a pour objectif la promotion de la botanique, incluant les recherches scientifiques sur les végétaux et la protection de l’environnement.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_botanique_de_Ratisbonne</t>
+          <t>Société_botanique_de_Ratisbonne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La société fondée en Bavière le 14 mai 1790 par David Heinrich Hoppe (1760-1846) est la plus ancienne société de botanique encore active dans le monde[3]. Elle s’est dotée, à partir de 1791, d’une bibliothèque spécialisée, et entretient un jardin botanique. La société s’est mise, en 1974, sous la protection de l’université de Ratisbonne à laquelle elle a confié la gestion de sa bibliothèque, riche de 1 805 216 volumes au début du XXIe siècle.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La société fondée en Bavière le 14 mai 1790 par David Heinrich Hoppe (1760-1846) est la plus ancienne société de botanique encore active dans le monde. Elle s’est dotée, à partir de 1791, d’une bibliothèque spécialisée, et entretient un jardin botanique. La société s’est mise, en 1974, sous la protection de l’université de Ratisbonne à laquelle elle a confié la gestion de sa bibliothèque, riche de 1 805 216 volumes au début du XXIe siècle.
 Le président d’honneur est, depuis 1999, le professeur Andreas Bresinsky (1935-) et son président est, depuis 2007, le professeur Peter Poschlod.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_botanique_de_Ratisbonne</t>
+          <t>Société_botanique_de_Ratisbonne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1802-1807 : Botanische Zeitung
 1818-1969 : Flora, oder Allgemeine Botanische Zeitung
